--- a/src/test/resources/TestData/testdata1.xlsx
+++ b/src/test/resources/TestData/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="687" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6800" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataMobile" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="126">
   <si>
     <t>DataID</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>TC001_Pricer_Android_Local</t>
+  </si>
+  <si>
+    <t>TC001_Starbucks_Android_Local</t>
+  </si>
+  <si>
+    <t>Starbucks_Mobile_Automation</t>
   </si>
   <si>
     <t>MobileSessionID</t>
@@ -416,7 +422,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +479,12 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -958,130 +970,130 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1090,7 +1102,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51">
       <alignment vertical="center"/>
@@ -1143,6 +1155,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="52">
@@ -1468,17 +1483,17 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83809523809524" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="55.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="23.1619047619048" customWidth="1"/>
-    <col min="3" max="3" width="27.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="18.8095238095238" customWidth="1"/>
-    <col min="5" max="5" width="14.5047619047619" customWidth="1"/>
+    <col min="1" max="1" width="55.3363636363636" customWidth="1"/>
+    <col min="2" max="2" width="23.1636363636364" customWidth="1"/>
+    <col min="3" max="3" width="27.3363636363636" customWidth="1"/>
+    <col min="4" max="4" width="18.8090909090909" customWidth="1"/>
+    <col min="5" max="5" width="14.5090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1498,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:5">
+    <row r="2" ht="15.5" spans="1:5">
       <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
@@ -1556,19 +1571,29 @@
       <c r="D5" s="25"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="12"/>
+    <row r="6" ht="15.5" spans="1:5">
+      <c r="A6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+    <row r="7" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A7" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="19"/>
@@ -1632,96 +1657,96 @@
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16190476190476" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.16363636363636" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.1619047619048" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" style="13" customWidth="1"/>
-    <col min="4" max="4" width="84.5047619047619" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.6666666666667" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.33333333333333" style="13" customWidth="1"/>
-    <col min="7" max="7" width="10.8380952380952" style="13" customWidth="1"/>
-    <col min="8" max="8" width="20.3333333333333" style="13" customWidth="1"/>
-    <col min="9" max="9" width="26.6666666666667" style="13" customWidth="1"/>
-    <col min="10" max="10" width="21.6666666666667" style="13" customWidth="1"/>
-    <col min="11" max="11" width="24.5047619047619" style="13" customWidth="1"/>
-    <col min="12" max="12" width="93.3333333333333" style="13" customWidth="1"/>
-    <col min="13" max="13" width="19.0095238095238" style="13" customWidth="1"/>
-    <col min="14" max="14" width="28.9047619047619" style="13" customWidth="1"/>
-    <col min="15" max="15" width="18.5047619047619" style="13" customWidth="1"/>
-    <col min="16" max="16" width="13.6666666666667" style="13" customWidth="1"/>
-    <col min="17" max="16384" width="9.16190476190476" style="13"/>
+    <col min="2" max="2" width="14.1636363636364" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.6636363636364" style="13" customWidth="1"/>
+    <col min="4" max="4" width="84.5090909090909" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.6636363636364" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.33636363636364" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.8363636363636" style="13" customWidth="1"/>
+    <col min="8" max="8" width="20.3363636363636" style="13" customWidth="1"/>
+    <col min="9" max="9" width="26.6636363636364" style="13" customWidth="1"/>
+    <col min="10" max="10" width="21.6636363636364" style="13" customWidth="1"/>
+    <col min="11" max="11" width="24.5090909090909" style="13" customWidth="1"/>
+    <col min="12" max="12" width="93.3363636363636" style="13" customWidth="1"/>
+    <col min="13" max="13" width="19.0090909090909" style="13" customWidth="1"/>
+    <col min="14" max="14" width="28.9090909090909" style="13" customWidth="1"/>
+    <col min="15" max="15" width="18.5090909090909" style="13" customWidth="1"/>
+    <col min="16" max="16" width="13.6636363636364" style="13" customWidth="1"/>
+    <col min="17" max="16384" width="9.16363636363636" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="17">
         <v>14.7</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="26" t="s">
         <v>35</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1737,21 +1762,21 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
@@ -1767,10 +1792,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="20"/>
@@ -1787,17 +1812,17 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" ht="30" spans="1:16">
+    <row r="5" ht="29" spans="1:16">
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F5" s="17" t="b">
         <v>1</v>
@@ -1806,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17">
@@ -1815,34 +1840,34 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C6" s="17">
         <v>14.7</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1850,7 +1875,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P6" s="18" t="b">
         <v>1</v>
@@ -1861,14 +1886,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" s="17">
         <v>14.6</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1880,7 +1905,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P7" s="18" t="b">
         <v>1</v>
@@ -1888,36 +1913,36 @@
     </row>
     <row r="8" s="13" customFormat="1" spans="1:14">
       <c r="A8" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="17">
         <v>14.7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="26" t="s">
         <v>35</v>
       </c>
+      <c r="F8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="H8" s="17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="21"/>
       <c r="L8" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -2042,15 +2067,15 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="11.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="74.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="25.1454545454545" customWidth="1"/>
+    <col min="2" max="2" width="11.4272727272727" customWidth="1"/>
+    <col min="3" max="3" width="74.4272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
@@ -2058,27 +2083,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11"/>
     </row>
@@ -2142,56 +2167,56 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="36.0666666666667" customWidth="1"/>
+    <col min="3" max="3" width="36.0636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" ht="105" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" ht="87" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -2200,12 +2225,12 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -2214,12 +2239,12 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -2228,12 +2253,12 @@
         <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -2242,12 +2267,12 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -2256,12 +2281,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B9" s="12">
         <v>6</v>
@@ -2270,12 +2295,12 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12">
         <v>7</v>
@@ -2284,12 +2309,12 @@
         <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="12">
         <v>8</v>
@@ -2298,12 +2323,12 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B12" s="12">
         <v>9</v>
@@ -2312,12 +2337,12 @@
         <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B13" s="12">
         <v>10</v>
@@ -2326,12 +2351,12 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" s="12">
         <v>11</v>
@@ -2340,12 +2365,12 @@
         <v>111</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="12">
         <v>12</v>
@@ -2354,12 +2379,12 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="12">
         <v>13</v>
@@ -2368,12 +2393,12 @@
         <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B17" s="12">
         <v>14</v>
@@ -2382,12 +2407,12 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" s="12">
         <v>15</v>
@@ -2396,12 +2421,12 @@
         <v>115</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="12">
         <v>16</v>
@@ -2410,12 +2435,12 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" s="12">
         <v>17</v>
@@ -2424,12 +2449,12 @@
         <v>117</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B21" s="12">
         <v>18</v>
@@ -2438,12 +2463,12 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" s="12">
         <v>19</v>
@@ -2452,12 +2477,12 @@
         <v>119</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="12">
         <v>20</v>
@@ -2466,12 +2491,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="12">
         <v>21</v>
@@ -2480,12 +2505,12 @@
         <v>121</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25" s="12">
         <v>22</v>
@@ -2494,12 +2519,12 @@
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26" s="12">
         <v>23</v>
@@ -2508,12 +2533,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" s="12">
         <v>24</v>
@@ -2522,12 +2547,12 @@
         <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="12">
         <v>25</v>
@@ -2536,12 +2561,12 @@
         <v>125</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B29" s="12">
         <v>26</v>
@@ -2550,12 +2575,12 @@
         <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" s="12">
         <v>27</v>
@@ -2564,12 +2589,12 @@
         <v>127</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="12">
         <v>28</v>
@@ -2578,12 +2603,12 @@
         <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B32" s="12">
         <v>29</v>
@@ -2592,12 +2617,12 @@
         <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
@@ -2606,12 +2631,12 @@
         <v>330</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" s="12">
         <v>31</v>
@@ -2620,12 +2645,12 @@
         <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B35" s="12">
         <v>32</v>
@@ -2634,12 +2659,12 @@
         <v>352</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B36" s="12">
         <v>33</v>
@@ -2648,12 +2673,12 @@
         <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B37" s="12">
         <v>34</v>
@@ -2662,12 +2687,12 @@
         <v>374</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" s="12">
         <v>35</v>
@@ -2676,12 +2701,12 @@
         <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B39" s="12">
         <v>36</v>
@@ -2690,12 +2715,12 @@
         <v>396</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B40" s="12">
         <v>37</v>
@@ -2704,12 +2729,12 @@
         <v>407</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="12">
         <v>38</v>
@@ -2718,12 +2743,12 @@
         <v>418</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B42" s="12">
         <v>39</v>
@@ -2732,12 +2757,12 @@
         <v>429</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B43" s="12">
         <v>40</v>
@@ -2746,12 +2771,12 @@
         <v>440</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B44" s="12">
         <v>41</v>
@@ -2760,12 +2785,12 @@
         <v>451</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" s="12">
         <v>42</v>
@@ -2774,12 +2799,12 @@
         <v>462</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B46" s="12">
         <v>43</v>
@@ -2788,12 +2813,12 @@
         <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="12">
         <v>44</v>
@@ -2802,12 +2827,12 @@
         <v>484</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B48" s="12">
         <v>45</v>
@@ -2816,12 +2841,12 @@
         <v>495</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B49" s="12">
         <v>46</v>
@@ -2830,12 +2855,12 @@
         <v>506</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B50" s="12">
         <v>47</v>
@@ -2844,12 +2869,12 @@
         <v>517</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B51" s="12">
         <v>48</v>
@@ -2858,7 +2883,7 @@
         <v>528</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2876,86 +2901,86 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83809523809524" defaultRowHeight="15" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="19.5047619047619" customWidth="1"/>
-    <col min="4" max="4" width="8.5047619047619" customWidth="1"/>
+    <col min="2" max="2" width="7.66363636363636" customWidth="1"/>
+    <col min="3" max="3" width="19.5090909090909" customWidth="1"/>
+    <col min="4" max="4" width="8.50909090909091" customWidth="1"/>
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.3363636363636" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
-    <col min="9" max="9" width="9.5047619047619" customWidth="1"/>
-    <col min="10" max="10" width="10.5047619047619" customWidth="1"/>
-    <col min="11" max="11" width="8.5047619047619" customWidth="1"/>
-    <col min="12" max="12" width="10.5047619047619" customWidth="1"/>
-    <col min="13" max="13" width="6.33333333333333" customWidth="1"/>
-    <col min="14" max="14" width="10.5047619047619" customWidth="1"/>
-    <col min="15" max="15" width="12.6666666666667" customWidth="1"/>
-    <col min="16" max="16" width="14.5047619047619" customWidth="1"/>
+    <col min="9" max="9" width="9.50909090909091" customWidth="1"/>
+    <col min="10" max="10" width="10.5090909090909" customWidth="1"/>
+    <col min="11" max="11" width="8.50909090909091" customWidth="1"/>
+    <col min="12" max="12" width="10.5090909090909" customWidth="1"/>
+    <col min="13" max="13" width="6.33636363636364" customWidth="1"/>
+    <col min="14" max="14" width="10.5090909090909" customWidth="1"/>
+    <col min="15" max="15" width="12.6636363636364" customWidth="1"/>
+    <col min="16" max="16" width="14.5090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" ht="15" spans="1:17">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2">
         <v>40000</v>
@@ -2979,19 +3004,19 @@
         <v>500000</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3010,69 +3035,69 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83809523809524" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83809523809524" style="1"/>
-    <col min="3" max="3" width="12.5047619047619" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5047619047619" style="1" customWidth="1"/>
-    <col min="5" max="8" width="8.83809523809524" style="1"/>
-    <col min="9" max="9" width="11.1619047619048" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6666666666667" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="12" max="12" width="21.3333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17.1619047619048" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5047619047619" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83809523809524" style="1"/>
+    <col min="2" max="2" width="8.83636363636364" style="1"/>
+    <col min="3" max="3" width="12.5090909090909" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5090909090909" style="1" customWidth="1"/>
+    <col min="5" max="8" width="8.83636363636364" style="1"/>
+    <col min="9" max="9" width="11.1636363636364" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6636363636364" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.3363636363636" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.3363636363636" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.1636363636364" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5090909090909" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83636363636364" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3">
         <v>100010</v>
@@ -3081,40 +3106,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J2" s="3">
         <v>200</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M2" s="3">
         <v>100010</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B3" s="3">
         <v>100011</v>
@@ -3123,22 +3148,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J3" s="3">
         <v>200</v>
@@ -3152,31 +3177,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B4" s="3">
         <v>100012</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E4" s="3">
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J4" s="3">
         <v>500</v>
@@ -3190,7 +3215,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B5" s="3">
         <v>100013</v>
@@ -3199,22 +3224,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J5" s="3">
         <v>200</v>
@@ -3228,7 +3253,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3">
         <v>100014</v>
@@ -3237,22 +3262,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -3266,7 +3291,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3">
         <v>100015</v>
@@ -3275,22 +3300,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J7" s="3">
         <v>200</v>

--- a/src/test/resources/TestData/testdata1.xlsx
+++ b/src/test/resources/TestData/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6800" tabRatio="687"/>
+    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataMobile" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
   <si>
     <t>DataID</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Starbucks_Mobile_Automation</t>
   </si>
   <si>
+    <t>VitaMojo_Mobile_Automation</t>
+  </si>
+  <si>
     <t>MobileSessionID</t>
   </si>
   <si>
@@ -208,7 +211,13 @@
     <t>helloworldhelloworldscsc sdsd hello world</t>
   </si>
   <si>
+    <t>Starbucks_Web_Automation</t>
+  </si>
+  <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>VitaMojo_Web_Automation</t>
   </si>
   <si>
     <t>Enabled</t>
@@ -1484,7 +1493,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1595,10 +1604,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+    <row r="8" ht="15.5" spans="1:5">
+      <c r="A8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
@@ -1680,73 +1695,73 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17">
         <v>14.7</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1762,21 +1777,21 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
@@ -1792,10 +1807,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="20"/>
@@ -1817,12 +1832,12 @@
         <v>10</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="17" t="b">
         <v>1</v>
@@ -1831,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17">
@@ -1840,34 +1855,34 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="17">
         <v>14.7</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1875,7 +1890,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P6" s="18" t="b">
         <v>1</v>
@@ -1886,14 +1901,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" s="17">
         <v>14.6</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1905,7 +1920,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P7" s="18" t="b">
         <v>1</v>
@@ -1913,36 +1928,36 @@
     </row>
     <row r="8" s="13" customFormat="1" spans="1:14">
       <c r="A8" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="17">
         <v>14.7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="21"/>
       <c r="L8" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -2068,7 +2083,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -2083,32 +2098,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" customFormat="1" spans="1:3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
     </row>
@@ -2174,49 +2193,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="87" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -2225,12 +2244,12 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -2239,12 +2258,12 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -2253,12 +2272,12 @@
         <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -2267,12 +2286,12 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -2281,12 +2300,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B9" s="12">
         <v>6</v>
@@ -2295,12 +2314,12 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" s="12">
         <v>7</v>
@@ -2309,12 +2328,12 @@
         <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B11" s="12">
         <v>8</v>
@@ -2323,12 +2342,12 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B12" s="12">
         <v>9</v>
@@ -2337,12 +2356,12 @@
         <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B13" s="12">
         <v>10</v>
@@ -2351,12 +2370,12 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B14" s="12">
         <v>11</v>
@@ -2365,12 +2384,12 @@
         <v>111</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B15" s="12">
         <v>12</v>
@@ -2379,12 +2398,12 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B16" s="12">
         <v>13</v>
@@ -2393,12 +2412,12 @@
         <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B17" s="12">
         <v>14</v>
@@ -2407,12 +2426,12 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B18" s="12">
         <v>15</v>
@@ -2421,12 +2440,12 @@
         <v>115</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B19" s="12">
         <v>16</v>
@@ -2435,12 +2454,12 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20" s="12">
         <v>17</v>
@@ -2449,12 +2468,12 @@
         <v>117</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B21" s="12">
         <v>18</v>
@@ -2463,12 +2482,12 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B22" s="12">
         <v>19</v>
@@ -2477,12 +2496,12 @@
         <v>119</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B23" s="12">
         <v>20</v>
@@ -2491,12 +2510,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B24" s="12">
         <v>21</v>
@@ -2505,12 +2524,12 @@
         <v>121</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B25" s="12">
         <v>22</v>
@@ -2519,12 +2538,12 @@
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B26" s="12">
         <v>23</v>
@@ -2533,12 +2552,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B27" s="12">
         <v>24</v>
@@ -2547,12 +2566,12 @@
         <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B28" s="12">
         <v>25</v>
@@ -2561,12 +2580,12 @@
         <v>125</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B29" s="12">
         <v>26</v>
@@ -2575,12 +2594,12 @@
         <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30" s="12">
         <v>27</v>
@@ -2589,12 +2608,12 @@
         <v>127</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31" s="12">
         <v>28</v>
@@ -2603,12 +2622,12 @@
         <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B32" s="12">
         <v>29</v>
@@ -2617,12 +2636,12 @@
         <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
@@ -2631,12 +2650,12 @@
         <v>330</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B34" s="12">
         <v>31</v>
@@ -2645,12 +2664,12 @@
         <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B35" s="12">
         <v>32</v>
@@ -2659,12 +2678,12 @@
         <v>352</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B36" s="12">
         <v>33</v>
@@ -2673,12 +2692,12 @@
         <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B37" s="12">
         <v>34</v>
@@ -2687,12 +2706,12 @@
         <v>374</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B38" s="12">
         <v>35</v>
@@ -2701,12 +2720,12 @@
         <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B39" s="12">
         <v>36</v>
@@ -2715,12 +2734,12 @@
         <v>396</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B40" s="12">
         <v>37</v>
@@ -2729,12 +2748,12 @@
         <v>407</v>
       </c>
       <c r="D40" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B41" s="12">
         <v>38</v>
@@ -2743,12 +2762,12 @@
         <v>418</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B42" s="12">
         <v>39</v>
@@ -2757,12 +2776,12 @@
         <v>429</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B43" s="12">
         <v>40</v>
@@ -2771,12 +2790,12 @@
         <v>440</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B44" s="12">
         <v>41</v>
@@ -2785,12 +2804,12 @@
         <v>451</v>
       </c>
       <c r="D44" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B45" s="12">
         <v>42</v>
@@ -2799,12 +2818,12 @@
         <v>462</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B46" s="12">
         <v>43</v>
@@ -2813,12 +2832,12 @@
         <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B47" s="12">
         <v>44</v>
@@ -2827,12 +2846,12 @@
         <v>484</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B48" s="12">
         <v>45</v>
@@ -2841,12 +2860,12 @@
         <v>495</v>
       </c>
       <c r="D48" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B49" s="12">
         <v>46</v>
@@ -2855,12 +2874,12 @@
         <v>506</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="12">
         <v>47</v>
@@ -2869,12 +2888,12 @@
         <v>517</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B51" s="12">
         <v>48</v>
@@ -2883,7 +2902,7 @@
         <v>528</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2923,64 +2942,64 @@
   <sheetData>
     <row r="1" ht="15" spans="1:17">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>40000</v>
@@ -3004,19 +3023,19 @@
         <v>500000</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3053,51 +3072,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3">
         <v>100010</v>
@@ -3106,40 +3125,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J2" s="3">
         <v>200</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M2" s="3">
         <v>100010</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B3" s="3">
         <v>100011</v>
@@ -3148,22 +3167,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J3" s="3">
         <v>200</v>
@@ -3177,31 +3196,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3">
         <v>100012</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E4" s="3">
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J4" s="3">
         <v>500</v>
@@ -3215,7 +3234,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3">
         <v>100013</v>
@@ -3224,22 +3243,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J5" s="3">
         <v>200</v>
@@ -3253,7 +3272,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B6" s="3">
         <v>100014</v>
@@ -3262,22 +3281,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -3291,7 +3310,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3">
         <v>100015</v>
@@ -3300,22 +3319,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J7" s="3">
         <v>200</v>

--- a/src/test/resources/TestData/testdata1.xlsx
+++ b/src/test/resources/TestData/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="687"/>
+    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="687" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataMobile" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="123">
   <si>
     <t>DataID</t>
   </si>
@@ -70,24 +70,12 @@
     <t>realme</t>
   </si>
   <si>
-    <t>TC001_CoinBaseWallet_Android_Local</t>
+    <t>VitaMojo_Mobile_Automation</t>
   </si>
   <si>
     <t>samsung</t>
   </si>
   <si>
-    <t>TC001_Pricer_Android_Local</t>
-  </si>
-  <si>
-    <t>TC001_Starbucks_Android_Local</t>
-  </si>
-  <si>
-    <t>Starbucks_Mobile_Automation</t>
-  </si>
-  <si>
-    <t>VitaMojo_Mobile_Automation</t>
-  </si>
-  <si>
     <t>MobileSessionID</t>
   </si>
   <si>
@@ -190,7 +178,7 @@
     <t>MS007</t>
   </si>
   <si>
-    <t>/Users/mandeep/Downloads/darwin-ux-builds-mb-ios-323/MindBreaks/iOS/DarwinUXMobile.ipa</t>
+    <t>/Users/kundan/Downloads/darwin-ux-builds-mb-ios-323/MindBreaks/iOS/DarwinUXMobile.ipa</t>
   </si>
   <si>
     <t>/Users/mandeep/Library/Developer/Xcode/DerivedData/WebDriverAgent-alwvnomvwrdtzoaxbbkniqrpcdpp</t>
@@ -202,7 +190,16 @@
     <t>SearchContent</t>
   </si>
   <si>
-    <t>Pricer_Web_Automation</t>
+    <t>VitaMojo_Web_Automation</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
   <si>
     <t>ll</t>
@@ -211,25 +208,10 @@
     <t>helloworldhelloworldscsc sdsd hello world</t>
   </si>
   <si>
-    <t>Starbucks_Web_Automation</t>
+    <t>firefox</t>
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>VitaMojo_Web_Automation</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>firefox</t>
   </si>
   <si>
     <t>a set of words that is complete in itself, typically containing a subject and predicate, conveying a statement, question, exclamation, or command, and consisting of a main clause and sometimes one or more subordinate clauses</t>
@@ -431,7 +413,7 @@
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,12 +470,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.0499893185216834"/>
-      <name val="Cambria"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -979,130 +955,130 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1111,7 +1087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51">
       <alignment vertical="center"/>
@@ -1164,9 +1140,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="52">
@@ -1490,10 +1463,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1554,103 +1527,53 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:5">
-      <c r="A4" s="16" t="s">
+    <row r="4" ht="15.5" spans="1:5">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:5">
-      <c r="A5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="25"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" ht="15.5" spans="1:5">
-      <c r="A6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>13</v>
-      </c>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" customFormat="1" ht="15.5" spans="1:3">
-      <c r="A7" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" ht="15.5" spans="1:5">
-      <c r="A8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>13</v>
-      </c>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1669,7 +1592,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16363636363636" defaultRowHeight="14.5"/>
@@ -1695,73 +1618,73 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="17">
         <v>14.7</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1777,21 +1700,21 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="27" t="s">
-        <v>38</v>
+      <c r="F3" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
@@ -1807,10 +1730,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="20"/>
@@ -1832,12 +1755,12 @@
         <v>10</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F5" s="17" t="b">
         <v>1</v>
@@ -1846,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I5" s="17"/>
       <c r="J5" s="17">
@@ -1855,34 +1778,34 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C6" s="17">
         <v>14.7</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1890,7 +1813,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P6" s="18" t="b">
         <v>1</v>
@@ -1901,14 +1824,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="17">
         <v>14.6</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1920,7 +1843,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P7" s="18" t="b">
         <v>1</v>
@@ -1928,36 +1851,36 @@
     </row>
     <row r="8" s="13" customFormat="1" spans="1:14">
       <c r="A8" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="17">
         <v>14.7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="21"/>
       <c r="L8" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -2080,10 +2003,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -2098,36 +2021,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
-      <c r="A2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="A2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" customFormat="1" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
     <row r="4" customFormat="1" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
     </row>
@@ -2160,16 +2073,6 @@
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
-    </row>
-    <row r="11" customFormat="1" spans="1:3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" customFormat="1" spans="1:3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2182,7 +2085,7 @@
   <sheetPr/>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2193,49 +2096,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" ht="87" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -2244,12 +2147,12 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -2258,12 +2161,12 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -2272,12 +2175,12 @@
         <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -2286,12 +2189,12 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -2300,12 +2203,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B9" s="12">
         <v>6</v>
@@ -2314,12 +2217,12 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12">
         <v>7</v>
@@ -2328,12 +2231,12 @@
         <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B11" s="12">
         <v>8</v>
@@ -2342,12 +2245,12 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B12" s="12">
         <v>9</v>
@@ -2356,12 +2259,12 @@
         <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B13" s="12">
         <v>10</v>
@@ -2370,12 +2273,12 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B14" s="12">
         <v>11</v>
@@ -2384,12 +2287,12 @@
         <v>111</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B15" s="12">
         <v>12</v>
@@ -2398,12 +2301,12 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B16" s="12">
         <v>13</v>
@@ -2412,12 +2315,12 @@
         <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B17" s="12">
         <v>14</v>
@@ -2426,12 +2329,12 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B18" s="12">
         <v>15</v>
@@ -2440,12 +2343,12 @@
         <v>115</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B19" s="12">
         <v>16</v>
@@ -2454,12 +2357,12 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B20" s="12">
         <v>17</v>
@@ -2468,12 +2371,12 @@
         <v>117</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B21" s="12">
         <v>18</v>
@@ -2482,12 +2385,12 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B22" s="12">
         <v>19</v>
@@ -2496,12 +2399,12 @@
         <v>119</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B23" s="12">
         <v>20</v>
@@ -2510,12 +2413,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="12">
         <v>21</v>
@@ -2524,12 +2427,12 @@
         <v>121</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B25" s="12">
         <v>22</v>
@@ -2538,12 +2441,12 @@
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B26" s="12">
         <v>23</v>
@@ -2552,12 +2455,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B27" s="12">
         <v>24</v>
@@ -2566,12 +2469,12 @@
         <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B28" s="12">
         <v>25</v>
@@ -2580,12 +2483,12 @@
         <v>125</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B29" s="12">
         <v>26</v>
@@ -2594,12 +2497,12 @@
         <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B30" s="12">
         <v>27</v>
@@ -2608,12 +2511,12 @@
         <v>127</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B31" s="12">
         <v>28</v>
@@ -2622,12 +2525,12 @@
         <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B32" s="12">
         <v>29</v>
@@ -2636,12 +2539,12 @@
         <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
@@ -2650,12 +2553,12 @@
         <v>330</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B34" s="12">
         <v>31</v>
@@ -2664,12 +2567,12 @@
         <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B35" s="12">
         <v>32</v>
@@ -2678,12 +2581,12 @@
         <v>352</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" s="12">
         <v>33</v>
@@ -2692,12 +2595,12 @@
         <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B37" s="12">
         <v>34</v>
@@ -2706,12 +2609,12 @@
         <v>374</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B38" s="12">
         <v>35</v>
@@ -2720,12 +2623,12 @@
         <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B39" s="12">
         <v>36</v>
@@ -2734,12 +2637,12 @@
         <v>396</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B40" s="12">
         <v>37</v>
@@ -2748,12 +2651,12 @@
         <v>407</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B41" s="12">
         <v>38</v>
@@ -2762,12 +2665,12 @@
         <v>418</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B42" s="12">
         <v>39</v>
@@ -2776,12 +2679,12 @@
         <v>429</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B43" s="12">
         <v>40</v>
@@ -2790,12 +2693,12 @@
         <v>440</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B44" s="12">
         <v>41</v>
@@ -2804,12 +2707,12 @@
         <v>451</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B45" s="12">
         <v>42</v>
@@ -2818,12 +2721,12 @@
         <v>462</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B46" s="12">
         <v>43</v>
@@ -2832,12 +2735,12 @@
         <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B47" s="12">
         <v>44</v>
@@ -2846,12 +2749,12 @@
         <v>484</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B48" s="12">
         <v>45</v>
@@ -2860,12 +2763,12 @@
         <v>495</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B49" s="12">
         <v>46</v>
@@ -2874,12 +2777,12 @@
         <v>506</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B50" s="12">
         <v>47</v>
@@ -2888,12 +2791,12 @@
         <v>517</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B51" s="12">
         <v>48</v>
@@ -2902,7 +2805,7 @@
         <v>528</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2942,64 +2845,64 @@
   <sheetData>
     <row r="1" ht="15" spans="1:17">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>40000</v>
@@ -3023,19 +2926,19 @@
         <v>500000</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3072,51 +2975,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3">
         <v>100010</v>
@@ -3125,40 +3028,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J2" s="3">
         <v>200</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M2" s="3">
         <v>100010</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3">
         <v>100011</v>
@@ -3167,22 +3070,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J3" s="3">
         <v>200</v>
@@ -3196,31 +3099,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B4" s="3">
         <v>100012</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E4" s="3">
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J4" s="3">
         <v>500</v>
@@ -3234,7 +3137,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B5" s="3">
         <v>100013</v>
@@ -3243,22 +3146,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J5" s="3">
         <v>200</v>
@@ -3272,7 +3175,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B6" s="3">
         <v>100014</v>
@@ -3281,22 +3184,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -3310,7 +3213,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B7" s="3">
         <v>100015</v>
@@ -3319,22 +3222,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J7" s="3">
         <v>200</v>

--- a/src/test/resources/TestData/testdata1.xlsx
+++ b/src/test/resources/TestData/testdata1.xlsx
@@ -2006,7 +2006,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>

--- a/src/test/resources/TestData/testdata1.xlsx
+++ b/src/test/resources/TestData/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="687"/>
+    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="687" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataMobile" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
   <si>
     <t>DataID</t>
   </si>
@@ -163,13 +163,16 @@
     <t>MS003</t>
   </si>
   <si>
-    <t>b88be5542609</t>
-  </si>
-  <si>
-    <t>com.darwinuxmobile</t>
-  </si>
-  <si>
-    <t>com.darwinuxmobile.MainActivity</t>
+    <t>Galaxy A71</t>
+  </si>
+  <si>
+    <t>RZ8N21G4DTP</t>
+  </si>
+  <si>
+    <t>com.starbucks.in.beta</t>
+  </si>
+  <si>
+    <t>com.tsb.app.home.presentation.view.activity.HomeActivity</t>
   </si>
   <si>
     <t>MS005</t>
@@ -1492,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1669,7 +1672,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16363636363636" defaultRowHeight="14.5"/>
@@ -1686,7 +1689,7 @@
     <col min="10" max="10" width="21.6636363636364" style="13" customWidth="1"/>
     <col min="11" max="11" width="24.5090909090909" style="13" customWidth="1"/>
     <col min="12" max="12" width="93.3363636363636" style="13" customWidth="1"/>
-    <col min="13" max="13" width="19.0090909090909" style="13" customWidth="1"/>
+    <col min="13" max="13" width="19" style="13" customWidth="1"/>
     <col min="14" max="14" width="28.9090909090909" style="13" customWidth="1"/>
     <col min="15" max="15" width="18.5090909090909" style="13" customWidth="1"/>
     <col min="16" max="16" width="13.6636363636364" style="13" customWidth="1"/>
@@ -1834,41 +1837,39 @@
       <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>13</v>
+      </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17" t="b">
-        <v>0</v>
-      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17">
-        <v>120</v>
-      </c>
+      <c r="I5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="17">
         <v>14.7</v>
@@ -1879,10 +1880,10 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1890,7 +1891,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P6" s="18" t="b">
         <v>1</v>
@@ -1901,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="17">
         <v>14.6</v>
@@ -1920,7 +1921,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P7" s="18" t="b">
         <v>1</v>
@@ -1928,16 +1929,16 @@
     </row>
     <row r="8" s="13" customFormat="1" spans="1:14">
       <c r="A8" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="17">
         <v>14.7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>36</v>
@@ -1949,15 +1950,15 @@
         <v>38</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="21"/>
       <c r="L8" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -2082,8 +2083,8 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -2098,35 +2099,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2193,49 +2194,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="87" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -2244,12 +2245,12 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -2258,12 +2259,12 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -2272,12 +2273,12 @@
         <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -2286,12 +2287,12 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -2300,12 +2301,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="12">
         <v>6</v>
@@ -2314,12 +2315,12 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12">
         <v>7</v>
@@ -2328,12 +2329,12 @@
         <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="12">
         <v>8</v>
@@ -2342,12 +2343,12 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="12">
         <v>9</v>
@@ -2356,12 +2357,12 @@
         <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="12">
         <v>10</v>
@@ -2370,12 +2371,12 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="12">
         <v>11</v>
@@ -2384,12 +2385,12 @@
         <v>111</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="12">
         <v>12</v>
@@ -2398,12 +2399,12 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="12">
         <v>13</v>
@@ -2412,12 +2413,12 @@
         <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="12">
         <v>14</v>
@@ -2426,12 +2427,12 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="12">
         <v>15</v>
@@ -2440,12 +2441,12 @@
         <v>115</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="12">
         <v>16</v>
@@ -2454,12 +2455,12 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="12">
         <v>17</v>
@@ -2468,12 +2469,12 @@
         <v>117</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="12">
         <v>18</v>
@@ -2482,12 +2483,12 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="12">
         <v>19</v>
@@ -2496,12 +2497,12 @@
         <v>119</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="12">
         <v>20</v>
@@ -2510,12 +2511,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="12">
         <v>21</v>
@@ -2524,12 +2525,12 @@
         <v>121</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="12">
         <v>22</v>
@@ -2538,12 +2539,12 @@
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="12">
         <v>23</v>
@@ -2552,12 +2553,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="12">
         <v>24</v>
@@ -2566,12 +2567,12 @@
         <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="12">
         <v>25</v>
@@ -2580,12 +2581,12 @@
         <v>125</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="12">
         <v>26</v>
@@ -2594,12 +2595,12 @@
         <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="12">
         <v>27</v>
@@ -2608,12 +2609,12 @@
         <v>127</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="12">
         <v>28</v>
@@ -2622,12 +2623,12 @@
         <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="12">
         <v>29</v>
@@ -2636,12 +2637,12 @@
         <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
@@ -2650,12 +2651,12 @@
         <v>330</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="12">
         <v>31</v>
@@ -2664,12 +2665,12 @@
         <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="12">
         <v>32</v>
@@ -2678,12 +2679,12 @@
         <v>352</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="12">
         <v>33</v>
@@ -2692,12 +2693,12 @@
         <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="12">
         <v>34</v>
@@ -2706,12 +2707,12 @@
         <v>374</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="12">
         <v>35</v>
@@ -2720,12 +2721,12 @@
         <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" s="12">
         <v>36</v>
@@ -2734,12 +2735,12 @@
         <v>396</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="12">
         <v>37</v>
@@ -2748,12 +2749,12 @@
         <v>407</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" s="12">
         <v>38</v>
@@ -2762,12 +2763,12 @@
         <v>418</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="12">
         <v>39</v>
@@ -2776,12 +2777,12 @@
         <v>429</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="12">
         <v>40</v>
@@ -2790,12 +2791,12 @@
         <v>440</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="12">
         <v>41</v>
@@ -2804,12 +2805,12 @@
         <v>451</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="12">
         <v>42</v>
@@ -2818,12 +2819,12 @@
         <v>462</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="12">
         <v>43</v>
@@ -2832,12 +2833,12 @@
         <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="12">
         <v>44</v>
@@ -2846,12 +2847,12 @@
         <v>484</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="12">
         <v>45</v>
@@ -2860,12 +2861,12 @@
         <v>495</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="12">
         <v>46</v>
@@ -2874,12 +2875,12 @@
         <v>506</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="12">
         <v>47</v>
@@ -2888,12 +2889,12 @@
         <v>517</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="12">
         <v>48</v>
@@ -2902,7 +2903,7 @@
         <v>528</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2942,64 +2943,64 @@
   <sheetData>
     <row r="1" ht="15" spans="1:17">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>40000</v>
@@ -3023,19 +3024,19 @@
         <v>500000</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3072,51 +3073,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3">
         <v>100010</v>
@@ -3125,40 +3126,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J2" s="3">
         <v>200</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M2" s="3">
         <v>100010</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3">
         <v>100011</v>
@@ -3167,22 +3168,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J3" s="3">
         <v>200</v>
@@ -3196,31 +3197,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3">
         <v>100012</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3">
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J4" s="3">
         <v>500</v>
@@ -3234,7 +3235,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3">
         <v>100013</v>
@@ -3243,22 +3244,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J5" s="3">
         <v>200</v>
@@ -3272,7 +3273,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3">
         <v>100014</v>
@@ -3281,22 +3282,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -3310,7 +3311,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3">
         <v>100015</v>
@@ -3319,22 +3320,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J7" s="3">
         <v>200</v>

--- a/src/test/resources/TestData/testdata1.xlsx
+++ b/src/test/resources/TestData/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="687"/>
+    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="687" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataMobile" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
   <si>
     <t>DataID</t>
   </si>
@@ -163,13 +163,16 @@
     <t>MS003</t>
   </si>
   <si>
-    <t>b88be5542609</t>
-  </si>
-  <si>
-    <t>com.darwinuxmobile</t>
-  </si>
-  <si>
-    <t>com.darwinuxmobile.MainActivity</t>
+    <t>Galaxy A71</t>
+  </si>
+  <si>
+    <t>RZ8N21G4DTP</t>
+  </si>
+  <si>
+    <t>com.starbucks.in.beta</t>
+  </si>
+  <si>
+    <t>com.tsb.app.home.presentation.view.activity.HomeActivity</t>
   </si>
   <si>
     <t>MS005</t>
@@ -1492,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1668,8 +1671,8 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16363636363636" defaultRowHeight="14.5"/>
@@ -1686,7 +1689,7 @@
     <col min="10" max="10" width="21.6636363636364" style="13" customWidth="1"/>
     <col min="11" max="11" width="24.5090909090909" style="13" customWidth="1"/>
     <col min="12" max="12" width="93.3363636363636" style="13" customWidth="1"/>
-    <col min="13" max="13" width="19.0090909090909" style="13" customWidth="1"/>
+    <col min="13" max="13" width="19" style="13" customWidth="1"/>
     <col min="14" max="14" width="28.9090909090909" style="13" customWidth="1"/>
     <col min="15" max="15" width="18.5090909090909" style="13" customWidth="1"/>
     <col min="16" max="16" width="13.6636363636364" style="13" customWidth="1"/>
@@ -1834,41 +1837,39 @@
       <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>13</v>
+      </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17" t="b">
-        <v>0</v>
-      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17">
-        <v>120</v>
-      </c>
+      <c r="I5" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="17">
         <v>14.7</v>
@@ -1879,10 +1880,10 @@
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1890,7 +1891,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P6" s="18" t="b">
         <v>1</v>
@@ -1901,7 +1902,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="17">
         <v>14.6</v>
@@ -1920,24 +1921,24 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P7" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="1" spans="1:14">
+    <row r="8" s="13" customFormat="1" spans="1:16">
       <c r="A8" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="17">
         <v>14.7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>36</v>
@@ -1949,18 +1950,19 @@
         <v>38</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="21"/>
       <c r="L8" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
+      <c r="P8" s="17"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="16"/>
@@ -2083,7 +2085,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -2098,35 +2100,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2193,49 +2195,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="87" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -2244,12 +2246,12 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -2258,12 +2260,12 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -2272,12 +2274,12 @@
         <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -2286,12 +2288,12 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -2300,12 +2302,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="12">
         <v>6</v>
@@ -2314,12 +2316,12 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12">
         <v>7</v>
@@ -2328,12 +2330,12 @@
         <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" s="12">
         <v>8</v>
@@ -2342,12 +2344,12 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="12">
         <v>9</v>
@@ -2356,12 +2358,12 @@
         <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="12">
         <v>10</v>
@@ -2370,12 +2372,12 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B14" s="12">
         <v>11</v>
@@ -2384,12 +2386,12 @@
         <v>111</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B15" s="12">
         <v>12</v>
@@ -2398,12 +2400,12 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" s="12">
         <v>13</v>
@@ -2412,12 +2414,12 @@
         <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17" s="12">
         <v>14</v>
@@ -2426,12 +2428,12 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="12">
         <v>15</v>
@@ -2440,12 +2442,12 @@
         <v>115</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" s="12">
         <v>16</v>
@@ -2454,12 +2456,12 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="12">
         <v>17</v>
@@ -2468,12 +2470,12 @@
         <v>117</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" s="12">
         <v>18</v>
@@ -2482,12 +2484,12 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" s="12">
         <v>19</v>
@@ -2496,12 +2498,12 @@
         <v>119</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="12">
         <v>20</v>
@@ -2510,12 +2512,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="12">
         <v>21</v>
@@ -2524,12 +2526,12 @@
         <v>121</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B25" s="12">
         <v>22</v>
@@ -2538,12 +2540,12 @@
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="12">
         <v>23</v>
@@ -2552,12 +2554,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="12">
         <v>24</v>
@@ -2566,12 +2568,12 @@
         <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B28" s="12">
         <v>25</v>
@@ -2580,12 +2582,12 @@
         <v>125</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="12">
         <v>26</v>
@@ -2594,12 +2596,12 @@
         <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="12">
         <v>27</v>
@@ -2608,12 +2610,12 @@
         <v>127</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="12">
         <v>28</v>
@@ -2622,12 +2624,12 @@
         <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" s="12">
         <v>29</v>
@@ -2636,12 +2638,12 @@
         <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
@@ -2650,12 +2652,12 @@
         <v>330</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" s="12">
         <v>31</v>
@@ -2664,12 +2666,12 @@
         <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" s="12">
         <v>32</v>
@@ -2678,12 +2680,12 @@
         <v>352</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" s="12">
         <v>33</v>
@@ -2692,12 +2694,12 @@
         <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" s="12">
         <v>34</v>
@@ -2706,12 +2708,12 @@
         <v>374</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="12">
         <v>35</v>
@@ -2720,12 +2722,12 @@
         <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B39" s="12">
         <v>36</v>
@@ -2734,12 +2736,12 @@
         <v>396</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="12">
         <v>37</v>
@@ -2748,12 +2750,12 @@
         <v>407</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B41" s="12">
         <v>38</v>
@@ -2762,12 +2764,12 @@
         <v>418</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" s="12">
         <v>39</v>
@@ -2776,12 +2778,12 @@
         <v>429</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" s="12">
         <v>40</v>
@@ -2790,12 +2792,12 @@
         <v>440</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="12">
         <v>41</v>
@@ -2804,12 +2806,12 @@
         <v>451</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="12">
         <v>42</v>
@@ -2818,12 +2820,12 @@
         <v>462</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B46" s="12">
         <v>43</v>
@@ -2832,12 +2834,12 @@
         <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="12">
         <v>44</v>
@@ -2846,12 +2848,12 @@
         <v>484</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" s="12">
         <v>45</v>
@@ -2860,12 +2862,12 @@
         <v>495</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="12">
         <v>46</v>
@@ -2874,12 +2876,12 @@
         <v>506</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B50" s="12">
         <v>47</v>
@@ -2888,12 +2890,12 @@
         <v>517</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" s="12">
         <v>48</v>
@@ -2902,7 +2904,7 @@
         <v>528</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2942,64 +2944,64 @@
   <sheetData>
     <row r="1" ht="15" spans="1:17">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>40000</v>
@@ -3023,19 +3025,19 @@
         <v>500000</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3072,51 +3074,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3">
         <v>100010</v>
@@ -3125,40 +3127,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J2" s="3">
         <v>200</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M2" s="3">
         <v>100010</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3">
         <v>100011</v>
@@ -3167,22 +3169,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J3" s="3">
         <v>200</v>
@@ -3196,31 +3198,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3">
         <v>100012</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3">
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J4" s="3">
         <v>500</v>
@@ -3234,7 +3236,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B5" s="3">
         <v>100013</v>
@@ -3243,22 +3245,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J5" s="3">
         <v>200</v>
@@ -3272,7 +3274,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" s="3">
         <v>100014</v>
@@ -3281,22 +3283,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -3310,7 +3312,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" s="3">
         <v>100015</v>
@@ -3319,22 +3321,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J7" s="3">
         <v>200</v>

--- a/src/test/resources/TestData/testdata1.xlsx
+++ b/src/test/resources/TestData/testdata1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="687" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6800" tabRatio="687"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataMobile" sheetId="3" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="134">
   <si>
     <t>DataID</t>
   </si>
@@ -88,6 +88,12 @@
     <t>VitaMojo_Mobile_Automation</t>
   </si>
   <si>
+    <t>Starbucks_Mobile_Auto</t>
+  </si>
+  <si>
+    <t>MS008</t>
+  </si>
+  <si>
     <t>MobileSessionID</t>
   </si>
   <si>
@@ -197,6 +203,12 @@
   </si>
   <si>
     <t>/Users/mandeep/Library/Developer/Xcode/DerivedData/WebDriverAgent-alwvnomvwrdtzoaxbbkniqrpcdpp</t>
+  </si>
+  <si>
+    <t>Galaxy F41</t>
+  </si>
+  <si>
+    <t>RZ8NB0ENCPE</t>
   </si>
   <si>
     <t>SearchTerm</t>
@@ -1495,8 +1507,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1620,12 +1632,16 @@
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+    <row r="9" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A9" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="16"/>
@@ -1671,8 +1687,8 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16363636363636" defaultRowHeight="14.5"/>
@@ -1698,73 +1714,73 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="17">
         <v>14.7</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1780,21 +1796,21 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
@@ -1810,10 +1826,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="20"/>
@@ -1835,55 +1851,55 @@
         <v>10</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="17">
         <v>13</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="17">
         <v>14.7</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1891,7 +1907,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P6" s="18" t="b">
         <v>1</v>
@@ -1902,14 +1918,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="17">
         <v>14.6</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1921,7 +1937,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P7" s="18" t="b">
         <v>1</v>
@@ -1929,56 +1945,72 @@
     </row>
     <row r="8" s="13" customFormat="1" spans="1:16">
       <c r="A8" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" s="17">
         <v>14.7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="21"/>
       <c r="L8" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+    <row r="9" ht="29" spans="1:16">
+      <c r="A9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="17">
+        <v>12</v>
+      </c>
       <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="18" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="J9" s="17"/>
-      <c r="K9" s="21"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="M9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
     </row>
@@ -2100,35 +2132,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -2195,49 +2227,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" ht="87" spans="1:4">
       <c r="A3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -2246,12 +2278,12 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -2260,12 +2292,12 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -2274,12 +2306,12 @@
         <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -2288,12 +2320,12 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -2302,12 +2334,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B9" s="12">
         <v>6</v>
@@ -2316,12 +2348,12 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B10" s="12">
         <v>7</v>
@@ -2330,12 +2362,12 @@
         <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B11" s="12">
         <v>8</v>
@@ -2344,12 +2376,12 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B12" s="12">
         <v>9</v>
@@ -2358,12 +2390,12 @@
         <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B13" s="12">
         <v>10</v>
@@ -2372,12 +2404,12 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B14" s="12">
         <v>11</v>
@@ -2386,12 +2418,12 @@
         <v>111</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B15" s="12">
         <v>12</v>
@@ -2400,12 +2432,12 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B16" s="12">
         <v>13</v>
@@ -2414,12 +2446,12 @@
         <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B17" s="12">
         <v>14</v>
@@ -2428,12 +2460,12 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B18" s="12">
         <v>15</v>
@@ -2442,12 +2474,12 @@
         <v>115</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B19" s="12">
         <v>16</v>
@@ -2456,12 +2488,12 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B20" s="12">
         <v>17</v>
@@ -2470,12 +2502,12 @@
         <v>117</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B21" s="12">
         <v>18</v>
@@ -2484,12 +2516,12 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B22" s="12">
         <v>19</v>
@@ -2498,12 +2530,12 @@
         <v>119</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B23" s="12">
         <v>20</v>
@@ -2512,12 +2544,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B24" s="12">
         <v>21</v>
@@ -2526,12 +2558,12 @@
         <v>121</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B25" s="12">
         <v>22</v>
@@ -2540,12 +2572,12 @@
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B26" s="12">
         <v>23</v>
@@ -2554,12 +2586,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B27" s="12">
         <v>24</v>
@@ -2568,12 +2600,12 @@
         <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B28" s="12">
         <v>25</v>
@@ -2582,12 +2614,12 @@
         <v>125</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B29" s="12">
         <v>26</v>
@@ -2596,12 +2628,12 @@
         <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B30" s="12">
         <v>27</v>
@@ -2610,12 +2642,12 @@
         <v>127</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B31" s="12">
         <v>28</v>
@@ -2624,12 +2656,12 @@
         <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B32" s="12">
         <v>29</v>
@@ -2638,12 +2670,12 @@
         <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
@@ -2652,12 +2684,12 @@
         <v>330</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B34" s="12">
         <v>31</v>
@@ -2666,12 +2698,12 @@
         <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B35" s="12">
         <v>32</v>
@@ -2680,12 +2712,12 @@
         <v>352</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B36" s="12">
         <v>33</v>
@@ -2694,12 +2726,12 @@
         <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B37" s="12">
         <v>34</v>
@@ -2708,12 +2740,12 @@
         <v>374</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B38" s="12">
         <v>35</v>
@@ -2722,12 +2754,12 @@
         <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" s="12">
         <v>36</v>
@@ -2736,12 +2768,12 @@
         <v>396</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B40" s="12">
         <v>37</v>
@@ -2750,12 +2782,12 @@
         <v>407</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B41" s="12">
         <v>38</v>
@@ -2764,12 +2796,12 @@
         <v>418</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B42" s="12">
         <v>39</v>
@@ -2778,12 +2810,12 @@
         <v>429</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B43" s="12">
         <v>40</v>
@@ -2792,12 +2824,12 @@
         <v>440</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B44" s="12">
         <v>41</v>
@@ -2806,12 +2838,12 @@
         <v>451</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B45" s="12">
         <v>42</v>
@@ -2820,12 +2852,12 @@
         <v>462</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B46" s="12">
         <v>43</v>
@@ -2834,12 +2866,12 @@
         <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B47" s="12">
         <v>44</v>
@@ -2848,12 +2880,12 @@
         <v>484</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B48" s="12">
         <v>45</v>
@@ -2862,12 +2894,12 @@
         <v>495</v>
       </c>
       <c r="D48" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B49" s="12">
         <v>46</v>
@@ -2876,12 +2908,12 @@
         <v>506</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B50" s="12">
         <v>47</v>
@@ -2890,12 +2922,12 @@
         <v>517</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B51" s="12">
         <v>48</v>
@@ -2904,7 +2936,7 @@
         <v>528</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2944,64 +2976,64 @@
   <sheetData>
     <row r="1" ht="15" spans="1:17">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D2">
         <v>40000</v>
@@ -3025,19 +3057,19 @@
         <v>500000</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3074,51 +3106,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3">
         <v>100010</v>
@@ -3127,40 +3159,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J2" s="3">
         <v>200</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M2" s="3">
         <v>100010</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3">
         <v>100011</v>
@@ -3169,22 +3201,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J3" s="3">
         <v>200</v>
@@ -3198,31 +3230,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3">
         <v>100012</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E4" s="3">
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J4" s="3">
         <v>500</v>
@@ -3236,7 +3268,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B5" s="3">
         <v>100013</v>
@@ -3245,22 +3277,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J5" s="3">
         <v>200</v>
@@ -3274,7 +3306,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3">
         <v>100014</v>
@@ -3283,22 +3315,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -3312,7 +3344,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3">
         <v>100015</v>
@@ -3321,22 +3353,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J7" s="3">
         <v>200</v>

--- a/src/test/resources/TestData/testdata1.xlsx
+++ b/src/test/resources/TestData/testdata1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="136">
   <si>
     <t>DataID</t>
   </si>
@@ -94,6 +94,9 @@
     <t>MS008</t>
   </si>
   <si>
+    <t>NSano_Mobile_Automation</t>
+  </si>
+  <si>
     <t>MobileSessionID</t>
   </si>
   <si>
@@ -233,6 +236,9 @@
   </si>
   <si>
     <t>VitaMojo_Web_Automation</t>
+  </si>
+  <si>
+    <t>NSano_Web_Automation</t>
   </si>
   <si>
     <t>Enabled</t>
@@ -1508,7 +1514,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83636363636364" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -1643,12 +1649,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+    <row r="10" customFormat="1" ht="15.5" spans="1:3">
+      <c r="A10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="16"/>
@@ -1714,73 +1724,73 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="17">
         <v>14.7</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -1796,21 +1806,21 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="17"/>
@@ -1826,10 +1836,10 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="20"/>
@@ -1851,55 +1861,55 @@
         <v>10</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="17">
         <v>13</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="17">
         <v>14.7</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1907,7 +1917,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" s="18" t="b">
         <v>1</v>
@@ -1918,14 +1928,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="17">
         <v>14.6</v>
       </c>
       <c r="D7" s="17"/>
       <c r="E7" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -1937,7 +1947,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" s="18" t="b">
         <v>1</v>
@@ -1945,36 +1955,36 @@
     </row>
     <row r="8" s="13" customFormat="1" spans="1:16">
       <c r="A8" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="17">
         <v>14.7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J8" s="17"/>
       <c r="K8" s="21"/>
       <c r="L8" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -1985,31 +1995,31 @@
         <v>19</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9" s="17">
         <v>12</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
       <c r="H9" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
@@ -2117,7 +2127,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -2132,41 +2142,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:3">
       <c r="A3" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" customFormat="1" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
     </row>
     <row r="5" customFormat="1" spans="1:3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
     </row>
@@ -2227,49 +2239,49 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" ht="87" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
@@ -2278,12 +2290,12 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="12">
         <v>2</v>
@@ -2292,12 +2304,12 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="12">
         <v>3</v>
@@ -2306,12 +2318,12 @@
         <v>33</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="12">
         <v>4</v>
@@ -2320,12 +2332,12 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" s="12">
         <v>5</v>
@@ -2334,12 +2346,12 @@
         <v>55</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" s="12">
         <v>6</v>
@@ -2348,12 +2360,12 @@
         <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" s="12">
         <v>7</v>
@@ -2362,12 +2374,12 @@
         <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="12">
         <v>8</v>
@@ -2376,12 +2388,12 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" s="12">
         <v>9</v>
@@ -2390,12 +2402,12 @@
         <v>99</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" s="12">
         <v>10</v>
@@ -2404,12 +2416,12 @@
         <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" s="12">
         <v>11</v>
@@ -2418,12 +2430,12 @@
         <v>111</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B15" s="12">
         <v>12</v>
@@ -2432,12 +2444,12 @@
         <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="12">
         <v>13</v>
@@ -2446,12 +2458,12 @@
         <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" s="12">
         <v>14</v>
@@ -2460,12 +2472,12 @@
         <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" s="12">
         <v>15</v>
@@ -2474,12 +2486,12 @@
         <v>115</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19" s="12">
         <v>16</v>
@@ -2488,12 +2500,12 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" s="12">
         <v>17</v>
@@ -2502,12 +2514,12 @@
         <v>117</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" s="12">
         <v>18</v>
@@ -2516,12 +2528,12 @@
         <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" s="12">
         <v>19</v>
@@ -2530,12 +2542,12 @@
         <v>119</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23" s="12">
         <v>20</v>
@@ -2544,12 +2556,12 @@
         <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" s="12">
         <v>21</v>
@@ -2558,12 +2570,12 @@
         <v>121</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" s="12">
         <v>22</v>
@@ -2572,12 +2584,12 @@
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" s="12">
         <v>23</v>
@@ -2586,12 +2598,12 @@
         <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" s="12">
         <v>24</v>
@@ -2600,12 +2612,12 @@
         <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" s="12">
         <v>25</v>
@@ -2614,12 +2626,12 @@
         <v>125</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" s="12">
         <v>26</v>
@@ -2628,12 +2640,12 @@
         <v>126</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B30" s="12">
         <v>27</v>
@@ -2642,12 +2654,12 @@
         <v>127</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B31" s="12">
         <v>28</v>
@@ -2656,12 +2668,12 @@
         <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="12">
         <v>29</v>
@@ -2670,12 +2682,12 @@
         <v>129</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="12">
         <v>30</v>
@@ -2684,12 +2696,12 @@
         <v>330</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="12">
         <v>31</v>
@@ -2698,12 +2710,12 @@
         <v>341</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" s="12">
         <v>32</v>
@@ -2712,12 +2724,12 @@
         <v>352</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36" s="12">
         <v>33</v>
@@ -2726,12 +2738,12 @@
         <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B37" s="12">
         <v>34</v>
@@ -2740,12 +2752,12 @@
         <v>374</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="12">
         <v>35</v>
@@ -2754,12 +2766,12 @@
         <v>385</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" s="12">
         <v>36</v>
@@ -2768,12 +2780,12 @@
         <v>396</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" s="12">
         <v>37</v>
@@ -2782,12 +2794,12 @@
         <v>407</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B41" s="12">
         <v>38</v>
@@ -2796,12 +2808,12 @@
         <v>418</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B42" s="12">
         <v>39</v>
@@ -2810,12 +2822,12 @@
         <v>429</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B43" s="12">
         <v>40</v>
@@ -2824,12 +2836,12 @@
         <v>440</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B44" s="12">
         <v>41</v>
@@ -2838,12 +2850,12 @@
         <v>451</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B45" s="12">
         <v>42</v>
@@ -2852,12 +2864,12 @@
         <v>462</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B46" s="12">
         <v>43</v>
@@ -2866,12 +2878,12 @@
         <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B47" s="12">
         <v>44</v>
@@ -2880,12 +2892,12 @@
         <v>484</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B48" s="12">
         <v>45</v>
@@ -2894,12 +2906,12 @@
         <v>495</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B49" s="12">
         <v>46</v>
@@ -2908,12 +2920,12 @@
         <v>506</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="12">
         <v>47</v>
@@ -2922,12 +2934,12 @@
         <v>517</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B51" s="12">
         <v>48</v>
@@ -2936,7 +2948,7 @@
         <v>528</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2976,64 +2988,64 @@
   <sheetData>
     <row r="1" ht="15" spans="1:17">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2">
         <v>40000</v>
@@ -3057,19 +3069,19 @@
         <v>500000</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3106,51 +3118,51 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3">
         <v>100010</v>
@@ -3159,40 +3171,40 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J2" s="3">
         <v>200</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M2" s="3">
         <v>100010</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3">
         <v>100011</v>
@@ -3201,22 +3213,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J3" s="3">
         <v>200</v>
@@ -3230,31 +3242,31 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3">
         <v>100012</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3">
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J4" s="3">
         <v>500</v>
@@ -3268,7 +3280,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" s="3">
         <v>100013</v>
@@ -3277,22 +3289,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J5" s="3">
         <v>200</v>
@@ -3306,7 +3318,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3">
         <v>100014</v>
@@ -3315,22 +3327,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J6" s="3">
         <v>500</v>
@@ -3344,7 +3356,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B7" s="3">
         <v>100015</v>
@@ -3353,22 +3365,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J7" s="3">
         <v>200</v>
